--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07135FC-2FFF-C34E-A5C0-4501D9087803}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A13AAE-C2A5-D840-B15D-D1D2881733B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>Sr No</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>Partially</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F095D15B-B12A-C44D-89EA-CC1024503696}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,6 +590,116 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A13AAE-C2A5-D840-B15D-D1D2881733B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29F0DA-152D-DE46-B940-E17596D3E227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>Sr No</t>
   </si>
@@ -93,7 +93,28 @@
     <t>Absent</t>
   </si>
   <si>
-    <t>Partially</t>
+    <t>With Innovation</t>
+  </si>
+  <si>
+    <t>Completed as per the requirements</t>
+  </si>
+  <si>
+    <t>Completed except the Title Case</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>Partially Completed</t>
+  </si>
+  <si>
+    <t>Completed But conding style must be improved</t>
+  </si>
+  <si>
+    <t>Completed but the Date difference code is copied from Internet, rest all are completed</t>
+  </si>
+  <si>
+    <t>Not Completed all assignments, asked him to complete them</t>
   </si>
 </sst>
 </file>
@@ -445,15 +466,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F095D15B-B12A-C44D-89EA-CC1024503696}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,7 +623,10 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -615,6 +640,9 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
       </c>
     </row>
@@ -632,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -649,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -666,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,10 +708,10 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,10 +722,128 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29F0DA-152D-DE46-B940-E17596D3E227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC1066-1582-2943-B5A8-0CD1414D7588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Sr No</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>Not Completed all assignments, asked him to complete them</t>
+  </si>
+  <si>
+    <t>Nicely defined UI UX</t>
+  </si>
+  <si>
+    <t>UI and UX is great</t>
+  </si>
+  <si>
+    <t>Sandeep Sharma</t>
+  </si>
+  <si>
+    <t>Excellent UI and UX</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medicle issues</t>
   </si>
 </sst>
 </file>
@@ -466,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F095D15B-B12A-C44D-89EA-CC1024503696}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,6 +864,121 @@
         <v>23</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CC1066-1582-2943-B5A8-0CD1414D7588}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC3D34-E475-7246-A243-E5AB77B835D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Sr No</t>
   </si>
@@ -126,13 +126,13 @@
     <t>Sandeep Sharma</t>
   </si>
   <si>
-    <t>Excellent UI and UX</t>
-  </si>
-  <si>
     <t>Not Completed</t>
   </si>
   <si>
     <t xml:space="preserve"> Medicle issues</t>
+  </si>
+  <si>
+    <t>Excellent UI and UX (Heis Experienced with React already)</t>
   </si>
 </sst>
 </file>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F095D15B-B12A-C44D-89EA-CC1024503696}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -977,6 +977,94 @@
       </c>
       <c r="C38">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CC3D34-E475-7246-A243-E5AB77B835D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563BD44-C39D-7D4E-9465-54D77FA9C185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>Sr No</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Excellent UI and UX (Heis Experienced with React already)</t>
+  </si>
+  <si>
+    <t>not completed</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:E47"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -989,6 +992,9 @@
       <c r="C41">
         <v>5</v>
       </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -999,6 +1005,9 @@
       </c>
       <c r="C42">
         <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1044,6 +1053,9 @@
       <c r="C46">
         <v>5</v>
       </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1054,6 +1066,9 @@
       </c>
       <c r="C47">
         <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1065,6 +1080,9 @@
       </c>
       <c r="C48">
         <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563BD44-C39D-7D4E-9465-54D77FA9C185}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FBF845-2872-9949-B5DA-80FD5C5DCD3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t>Sr No</t>
   </si>
@@ -135,7 +135,7 @@
     <t>Excellent UI and UX (Heis Experienced with React already)</t>
   </si>
   <si>
-    <t>not completed</t>
+    <t>New Join</t>
   </si>
 </sst>
 </file>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F095D15B-B12A-C44D-89EA-CC1024503696}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,6 +894,9 @@
       <c r="C32">
         <v>4</v>
       </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" t="s">
         <v>32</v>
       </c>
@@ -921,6 +924,9 @@
       </c>
       <c r="C34">
         <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -981,6 +987,9 @@
       <c r="C38">
         <v>4</v>
       </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -1020,6 +1029,9 @@
       <c r="C43">
         <v>5</v>
       </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -1031,6 +1043,9 @@
       <c r="C44">
         <v>5</v>
       </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -1042,6 +1057,9 @@
       <c r="C45">
         <v>5</v>
       </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1054,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1082,6 +1100,209 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68">
         <v>7</v>
       </c>
     </row>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FBF845-2872-9949-B5DA-80FD5C5DCD3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6089E4-6EFE-AD48-BF7D-47969236696E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
   <si>
     <t>Sr No</t>
   </si>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,6 +1241,9 @@
       <c r="C63">
         <v>7</v>
       </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
@@ -1292,6 +1295,9 @@
         <v>14</v>
       </c>
       <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Hands_on_Status.xlsx
+++ b/Hands_on_Status.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maheshsabnis/Projects/blazeapril2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6089E4-6EFE-AD48-BF7D-47969236696E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDD7F4-5510-2A49-812A-BA0F67089472}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20000" xr2:uid="{8122F9D8-D455-1349-B878-2A260832660D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$73:$C$79</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
   <si>
     <t>Sr No</t>
   </si>
@@ -102,9 +105,6 @@
     <t>Completed except the Title Case</t>
   </si>
   <si>
-    <t>Not done</t>
-  </si>
-  <si>
     <t>Partially Completed</t>
   </si>
   <si>
@@ -136,16 +136,75 @@
   </si>
   <si>
     <t>New Join</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://github.com/afifnadaf-blazeclan/html-tutorials</t>
+  </si>
+  <si>
+    <t>Aman Rathore</t>
+  </si>
+  <si>
+    <t>https://github.com/AmanRathore99/Javascript/tree/master</t>
+  </si>
+  <si>
+    <t>Bhakti Thombare</t>
+  </si>
+  <si>
+    <t>https://github.com/dev-bhakti/blazemarch2021.git</t>
+  </si>
+  <si>
+    <t>Chakshu Daithankar</t>
+  </si>
+  <si>
+    <t>https://github.com/Chakshu12345/Application-using-ES6.git, https://github.com/Chakshu12345/All_Assignments.git</t>
+  </si>
+  <si>
+    <t>Indrajeet Latthe</t>
+  </si>
+  <si>
+    <t>https://github.com/indrajeet183/blazeclan-js-training-solutions</t>
+  </si>
+  <si>
+    <t>https://github.com/prashante114/Javascrip_Assignment/tree/master</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,13 +227,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,20 +552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F095D15B-B12A-C44D-89EA-CC1024503696}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -534,7 +600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -551,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -568,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -585,7 +651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -602,7 +668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -619,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -633,7 +699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -650,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -667,7 +733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -684,7 +750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>4</v>
       </c>
@@ -701,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>5</v>
       </c>
@@ -718,7 +784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>6</v>
       </c>
@@ -735,23 +801,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1</v>
       </c>
@@ -765,10 +831,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -785,7 +851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -799,10 +865,10 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -813,13 +879,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
@@ -836,7 +902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>6</v>
       </c>
@@ -847,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>7</v>
       </c>
@@ -864,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -877,14 +943,14 @@
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>23</v>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>2</v>
       </c>
@@ -898,10 +964,10 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>3</v>
       </c>
@@ -915,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>4</v>
       </c>
@@ -929,7 +995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>5</v>
       </c>
@@ -943,10 +1009,10 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>6</v>
       </c>
@@ -957,10 +1023,10 @@
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>7</v>
       </c>
@@ -971,27 +1037,27 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="E37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1005,7 +1071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1019,7 +1085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1033,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1047,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1061,7 +1127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>6</v>
       </c>
@@ -1075,7 +1141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>7</v>
       </c>
@@ -1089,12 +1155,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1103,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1117,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1131,7 +1197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1145,7 +1211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1156,7 +1222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1170,7 +1236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1184,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1195,18 +1261,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1217,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1231,7 +1297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1245,7 +1311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>4</v>
       </c>
@@ -1259,7 +1325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>5</v>
       </c>
@@ -1273,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>6</v>
       </c>
@@ -1287,7 +1353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>7</v>
       </c>
@@ -1301,18 +1367,86 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>8</v>
       </c>
       <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
         <v>29</v>
       </c>
-      <c r="C68">
-        <v>7</v>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="B74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="B75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="B77" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B73:C79" xr:uid="{163BCBB9-5C6D-7643-94E2-FD6C77478B4F}"/>
+  <hyperlinks>
+    <hyperlink ref="C74" r:id="rId1" tooltip="Original URL:_x000a_https://github.com/afifnadaf-blazeclan/html-tutorials_x000a__x000a_Click to follow link." display="https://apac01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgithub.com%2Fafifnadaf-blazeclan%2Fhtml-tutorials&amp;data=04%7C01%7C%7C1cd918a0e92845b926e008d9030821c4%7C84df9e7fe9f640afb435aaaaaaaaaaaa%7C1%7C0%7C637544155727792797%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000&amp;sdata=UZc99TkpF2%2Fm9oKEmEFMZXLdB25ok1d5uBeqaXI4vow%3D&amp;reserved=0" xr:uid="{D3B2C822-B166-544C-96BA-0F730F3EBC45}"/>
+    <hyperlink ref="C75" r:id="rId2" tooltip="Original URL:_x000a_https://github.com/AmanRathore99/Javascript/tree/master_x000a__x000a_Click to follow link." display="https://apac01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgithub.com%2FAmanRathore99%2FJavascript%2Ftree%2Fmaster&amp;data=04%7C01%7C%7C1cd918a0e92845b926e008d9030821c4%7C84df9e7fe9f640afb435aaaaaaaaaaaa%7C1%7C0%7C637544155727792797%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000&amp;sdata=69qHu8f%2FcmTXzVby41p%2FJbRXu1rWhQYMQmTvhEqve%2Fs%3D&amp;reserved=0" xr:uid="{E4E1D059-8359-304E-8CA4-93C2C2866E9F}"/>
+    <hyperlink ref="C76" r:id="rId3" display="https://apac01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgithub.com%2Fdev-bhakti%2Fblazemarch2021.git&amp;data=04%7C01%7C%7C1cd918a0e92845b926e008d9030821c4%7C84df9e7fe9f640afb435aaaaaaaaaaaa%7C1%7C0%7C637544155727802754%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000&amp;sdata=RAjDWaQqBE3xAkNYwRxE4MvwnQyyqvCfroXzBCNNIDA%3D&amp;reserved=0" xr:uid="{6F18B747-551E-5D48-AEEC-682B8AA5CB29}"/>
+    <hyperlink ref="C78" r:id="rId4" display="https://apac01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgithub.com%2Findrajeet183%2Fblazeclan-js-training-solutions&amp;data=04%7C01%7C%7C1cd918a0e92845b926e008d9030821c4%7C84df9e7fe9f640afb435aaaaaaaaaaaa%7C1%7C0%7C637544155727812709%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000&amp;sdata=CHRXIfybtv3MoxyPNk8Q5UPpcyaOSPlBYPDkho%2BsjAQ%3D&amp;reserved=0" xr:uid="{B6B6D540-3FC5-BB42-904E-D79CD0066206}"/>
+    <hyperlink ref="C79" r:id="rId5" display="https://apac01.safelinks.protection.outlook.com/?url=https%3A%2F%2Fgithub.com%2Fprashante114%2FJavascrip_Assignment%2Ftree%2Fmaster&amp;data=04%7C01%7C%7C1cd918a0e92845b926e008d9030821c4%7C84df9e7fe9f640afb435aaaaaaaaaaaa%7C1%7C0%7C637544155727812709%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C1000&amp;sdata=zrWVip4OzJbn0wWU2gxq2VW8j%2FK6VI2YsiyZ1RewAfo%3D&amp;reserved=0" xr:uid="{2DE138D0-09A4-1043-A73A-A3D1ADD84985}"/>
+    <hyperlink ref="C77" r:id="rId6" xr:uid="{D1ACA07D-88B4-2040-A1E0-35366F982990}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
